--- a/data/CM_OPERATIONS.xlsx
+++ b/data/CM_OPERATIONS.xlsx
@@ -384,24 +384,12 @@
       </c>
     </row>
     <row outlineLevel="0" r="4">
-      <c r="A4" s="0">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>чистка миксера</t>
-        </is>
-      </c>
+      <c r="A4" s="0"/>
+      <c r="B4" s="0" t="inlineStr"/>
     </row>
     <row outlineLevel="0" r="5">
-      <c r="A5" s="0">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>чистка SNIF</t>
-        </is>
-      </c>
+      <c r="A5" s="0"/>
+      <c r="B5" s="0" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
